--- a/static/download/2023/RP3_Flights_2023_Jan_Apr.xlsx
+++ b/static/download/2023/RP3_Flights_2023_Jan_Apr.xlsx
@@ -1512,7 +1512,7 @@
         <v>0.0406629172</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
